--- a/Cities.xlsx
+++ b/Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedrive.aptiv.com/personal/karolina_kasztelan_aptiv_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{173D75E5-0C03-451C-8D85-90D8328B3CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80EE4163-33CE-412D-B48D-2F830CCB2590}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{173D75E5-0C03-451C-8D85-90D8328B3CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCC0BA2F-48D6-4329-8A9D-A60C86A3093F}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{4230F3DD-45FA-428D-8446-A38A5C42ADD0}"/>
   </bookViews>
@@ -47,13 +47,13 @@
     <t>Katowice;2400000</t>
   </si>
   <si>
-    <t>Kraków;1400000</t>
+    <t>Tricity;1100000</t>
   </si>
   <si>
-    <t>Poznañ;1000000</t>
+    <t>Poznan;1000000</t>
   </si>
   <si>
-    <t>Tricity;1100000</t>
+    <t>Krakow;1400000</t>
   </si>
 </sst>
 </file>
@@ -896,9 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595AD6E0-6027-4209-A75F-FAA943D54B56}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -919,12 +917,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
